--- a/results/results_within_group.xlsx
+++ b/results/results_within_group.xlsx
@@ -471,64 +471,64 @@
         </is>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>-0.4098580149591114</v>
+        <v>-0.3904646514696158</v>
       </c>
       <c r="E2">
-        <v>0.1291481272170181</v>
+        <v>0.1410583654308397</v>
       </c>
       <c r="F2">
-        <v>-0.6635013443900916</v>
+        <v>-0.6680066496187073</v>
       </c>
       <c r="G2">
-        <v>-0.1554557493902175</v>
+        <v>-0.1132358087228071</v>
       </c>
       <c r="H2">
-        <v>0.02366407119368128</v>
+        <v>0.02492836135674757</v>
       </c>
       <c r="I2">
-        <v>1.52132708206378e-12</v>
+        <v>9.884636330732117e-10</v>
       </c>
       <c r="J2">
-        <v>0.2781730567250265</v>
+        <v>0.2964505685217054</v>
       </c>
       <c r="K2">
-        <v>0.02413145466990961</v>
+        <v>0.0255872276698816</v>
       </c>
       <c r="L2">
-        <v>1.203938373928393e-10</v>
+        <v>1.184750874154698e-09</v>
       </c>
       <c r="M2">
-        <v>0.2776202068871271</v>
+        <v>0.2919833829988492</v>
       </c>
       <c r="N2">
-        <v>0.05770034686574264</v>
+        <v>0.0599200830491364</v>
       </c>
       <c r="O2">
-        <v>6.304095122940298e-07</v>
+        <v>1.585944982574431e-07</v>
       </c>
       <c r="P2">
-        <v>0.230181475384542</v>
+        <v>0.2483444415026153</v>
       </c>
       <c r="Q2">
-        <v>0.05834037240084679</v>
+        <v>0.06071637637983788</v>
       </c>
       <c r="R2">
-        <v>3.916269729123789e-06</v>
+        <v>6.383929347877652e-07</v>
       </c>
       <c r="S2">
-        <v>0.2297542839090015</v>
+        <v>0.2493415825319829</v>
       </c>
       <c r="T2">
-        <v>-0.7741452679993546</v>
+        <v>-0.8168450973122738</v>
       </c>
       <c r="U2">
-        <v>-0.04557076191886827</v>
+        <v>0.03591579437304221</v>
       </c>
     </row>
   </sheetData>
